--- a/2 Formulas and Functions/Formulas and Functions - 2. Conditional Functions.xlsx
+++ b/2 Formulas and Functions/Formulas and Functions - 2. Conditional Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\4. Formulas and Functions\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis/2 Formulas and Functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3340DD0-DC0E-44FC-A310-7923AF36B745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{B3340DD0-DC0E-44FC-A310-7923AF36B745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE76D4F1-C0DB-4626-A888-9B973D45EA3F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="2820" windowWidth="28800" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -511,7 +511,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -779,9 +779,18 @@
       <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="I10" s="12">
+        <f>COUNTIF($C$2:$C$30, H10)</f>
+        <v>13</v>
+      </c>
+      <c r="J10" s="12">
+        <f>SUMIF($C$2:$C$30, $H10, $D$2:$D$30)</f>
+        <v>13000</v>
+      </c>
+      <c r="K10" s="12">
+        <f>SUMIF($C$2:$C$30, $H10, $F$2:$F$30)</f>
+        <v>348000</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
@@ -806,9 +815,18 @@
       <c r="H11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="I11" s="12">
+        <f t="shared" ref="I11:I12" si="1">COUNTIF($C$2:$C$30, H11)</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" ref="J11:J12" si="2">SUMIF($C$2:$C$30, H11, $D$2:$D$30)</f>
+        <v>7200</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" ref="K11:K12" si="3">SUMIF($C$2:$C$30, $H11, $F$2:$F$30)</f>
+        <v>204000</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
@@ -833,9 +851,18 @@
       <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="I12" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="3"/>
+        <v>910000</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
